--- a/Dataset1 - Hepatitis/melhoresTrain.xlsx
+++ b/Dataset1 - Hepatitis/melhoresTrain.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="799" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="822" uniqueCount="12">
   <si>
     <t>Função Treino</t>
   </si>
@@ -132,81 +132,81 @@
         <v>11</v>
       </c>
       <c r="C2" s="0">
-        <v>0.019989939701735616</v>
+        <v>0.037985671296468092</v>
       </c>
       <c r="D2" s="0">
-        <v>98.001006029826442</v>
+        <v>96.201432870353187</v>
       </c>
       <c r="E2" s="0">
-        <v>1.1217645999999999</v>
+        <v>1.4242440999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="0">
-        <v>0.044116791829880583</v>
+        <v>0.0049975749174030783</v>
       </c>
       <c r="D3" s="0">
-        <v>95.588320817011947</v>
+        <v>99.500242508259689</v>
       </c>
       <c r="E3" s="0">
-        <v>1.0894759000000001</v>
+        <v>3.6730611</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="0">
-        <v>0.020223110705780343</v>
+        <v>0.069254141763163857</v>
       </c>
       <c r="D4" s="0">
-        <v>97.977688929421973</v>
+        <v>93.07458582368362</v>
       </c>
       <c r="E4" s="0">
-        <v>3.7514316999999999</v>
+        <v>0.66276599999999997</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0">
-        <v>0.049196936168143662</v>
+        <v>0.053971096118255776</v>
       </c>
       <c r="D5" s="0">
-        <v>95.080306383185629</v>
+        <v>94.602890388174416</v>
       </c>
       <c r="E5" s="0">
-        <v>3.801161</v>
+        <v>1.0846765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0">
-        <v>0.11142388923992473</v>
+        <v>5.9330632961807363e-09</v>
       </c>
       <c r="D6" s="0">
-        <v>88.85761107600753</v>
+        <v>99.999999406693675</v>
       </c>
       <c r="E6" s="0">
-        <v>0.75727460000000002</v>
+        <v>2.7960763000000002</v>
       </c>
     </row>
     <row r="7">
@@ -214,16 +214,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0">
-        <v>0.08832670639929506</v>
+        <v>0.099404701147578711</v>
       </c>
       <c r="D7" s="0">
-        <v>91.167329360070497</v>
+        <v>90.059529885242128</v>
       </c>
       <c r="E7" s="0">
-        <v>0.70291910000000002</v>
+        <v>0.69824209999999998</v>
       </c>
     </row>
     <row r="8">
@@ -231,50 +231,50 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0">
-        <v>0.021223988123169692</v>
+        <v>0.4034140655312396</v>
       </c>
       <c r="D8" s="0">
-        <v>97.877601187683027</v>
+        <v>59.65859344687604</v>
       </c>
       <c r="E8" s="0">
-        <v>1.1238186999999999</v>
+        <v>0.1946214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0">
-        <v>0.014427618008776221</v>
+        <v>0.40341406553039177</v>
       </c>
       <c r="D9" s="0">
-        <v>98.557238199122381</v>
+        <v>59.658593446960829</v>
       </c>
       <c r="E9" s="0">
-        <v>1.1162496</v>
+        <v>0.0497241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0">
-        <v>1.746861892376431e-09</v>
+        <v>0.40369350006161026</v>
       </c>
       <c r="D10" s="0">
-        <v>99.999999825313807</v>
+        <v>59.630649993838979</v>
       </c>
       <c r="E10" s="0">
-        <v>3.7852185999999999</v>
+        <v>0.66325880000000004</v>
       </c>
     </row>
     <row r="11">
